--- a/1_data/1_data_nutrients/1_data_literature/1_data/0034_012_mishra_2013_bees/0034_012_mishra_2013.xlsx
+++ b/1_data/1_data_nutrients/1_data_literature/1_data/0034_012_mishra_2013_bees/0034_012_mishra_2013.xlsx
@@ -694,17 +694,17 @@
   </sheetPr>
   <dimension ref="A1:CD138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="BL1" activeCellId="0" sqref="BL1"/>
-      <selection pane="bottomLeft" activeCell="BR74" activeCellId="0" sqref="BR74"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AF57" activeCellId="0" sqref="AF57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
@@ -715,23 +715,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="20.86"/>
@@ -746,7 +746,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="46" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="22.14"/>
@@ -756,15 +756,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="58" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="58" style="1" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="8.29"/>
@@ -772,7 +772,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="8.29"/>
@@ -11942,7 +11942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -12037,10 +12037,10 @@
         <v>84</v>
       </c>
       <c r="AF46" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG46" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH46" s="15" t="s">
         <v>84</v>
@@ -12190,7 +12190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -12285,10 +12285,10 @@
         <v>84</v>
       </c>
       <c r="AF47" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG47" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH47" s="15" t="s">
         <v>84</v>
@@ -12438,7 +12438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -12533,10 +12533,10 @@
         <v>84</v>
       </c>
       <c r="AF48" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG48" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH48" s="15" t="s">
         <v>84</v>
@@ -12686,7 +12686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -12781,10 +12781,10 @@
         <v>84</v>
       </c>
       <c r="AF49" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG49" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH49" s="15" t="s">
         <v>84</v>
@@ -12934,7 +12934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -13029,10 +13029,10 @@
         <v>84</v>
       </c>
       <c r="AF50" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG50" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH50" s="15" t="s">
         <v>84</v>
@@ -13182,7 +13182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -13277,10 +13277,10 @@
         <v>84</v>
       </c>
       <c r="AF51" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG51" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH51" s="15" t="s">
         <v>84</v>
@@ -13430,7 +13430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
@@ -13525,10 +13525,10 @@
         <v>84</v>
       </c>
       <c r="AF52" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG52" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH52" s="15" t="s">
         <v>84</v>
@@ -13678,7 +13678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
@@ -13773,10 +13773,10 @@
         <v>84</v>
       </c>
       <c r="AF53" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG53" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH53" s="15" t="s">
         <v>84</v>
@@ -13926,7 +13926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -14021,10 +14021,10 @@
         <v>84</v>
       </c>
       <c r="AF54" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG54" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH54" s="15" t="s">
         <v>84</v>
@@ -14174,7 +14174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -14269,10 +14269,10 @@
         <v>84</v>
       </c>
       <c r="AF55" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG55" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH55" s="15" t="s">
         <v>84</v>
@@ -14422,7 +14422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -14517,10 +14517,10 @@
         <v>84</v>
       </c>
       <c r="AF56" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG56" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH56" s="15" t="s">
         <v>84</v>
@@ -14670,7 +14670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -14765,10 +14765,10 @@
         <v>84</v>
       </c>
       <c r="AF57" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG57" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH57" s="15" t="s">
         <v>84</v>
@@ -14918,7 +14918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -15013,10 +15013,10 @@
         <v>84</v>
       </c>
       <c r="AF58" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG58" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH58" s="15" t="s">
         <v>84</v>
@@ -15166,7 +15166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -15261,10 +15261,10 @@
         <v>84</v>
       </c>
       <c r="AF59" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG59" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH59" s="15" t="s">
         <v>84</v>
@@ -15414,7 +15414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -15509,10 +15509,10 @@
         <v>84</v>
       </c>
       <c r="AF60" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG60" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH60" s="15" t="s">
         <v>84</v>
@@ -15757,10 +15757,10 @@
         <v>84</v>
       </c>
       <c r="AF61" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG61" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH61" s="15" t="s">
         <v>84</v>
@@ -16005,10 +16005,10 @@
         <v>84</v>
       </c>
       <c r="AF62" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG62" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH62" s="15" t="s">
         <v>84</v>
@@ -16253,10 +16253,10 @@
         <v>84</v>
       </c>
       <c r="AF63" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG63" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH63" s="15" t="s">
         <v>84</v>
@@ -16501,10 +16501,10 @@
         <v>84</v>
       </c>
       <c r="AF64" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG64" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH64" s="15" t="s">
         <v>84</v>
@@ -16749,10 +16749,10 @@
         <v>84</v>
       </c>
       <c r="AF65" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG65" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH65" s="15" t="s">
         <v>84</v>
@@ -16997,10 +16997,10 @@
         <v>84</v>
       </c>
       <c r="AF66" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG66" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH66" s="15" t="s">
         <v>84</v>
@@ -17245,10 +17245,10 @@
         <v>84</v>
       </c>
       <c r="AF67" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG67" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH67" s="15" t="s">
         <v>84</v>
@@ -17398,7 +17398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -17493,10 +17493,10 @@
         <v>84</v>
       </c>
       <c r="AF68" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG68" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH68" s="15" t="s">
         <v>84</v>
@@ -17646,7 +17646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -17741,10 +17741,10 @@
         <v>84</v>
       </c>
       <c r="AF69" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG69" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH69" s="15" t="s">
         <v>84</v>
@@ -17894,7 +17894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -17989,10 +17989,10 @@
         <v>84</v>
       </c>
       <c r="AF70" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG70" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH70" s="15" t="s">
         <v>84</v>
@@ -18142,7 +18142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -18237,10 +18237,10 @@
         <v>84</v>
       </c>
       <c r="AF71" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG71" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH71" s="15" t="s">
         <v>84</v>
@@ -18390,7 +18390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -18485,10 +18485,10 @@
         <v>84</v>
       </c>
       <c r="AF72" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG72" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH72" s="15" t="s">
         <v>84</v>
@@ -18638,7 +18638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -18733,10 +18733,10 @@
         <v>84</v>
       </c>
       <c r="AF73" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG73" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH73" s="15" t="s">
         <v>84</v>
@@ -18886,7 +18886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -18981,10 +18981,10 @@
         <v>84</v>
       </c>
       <c r="AF74" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG74" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH74" s="15" t="s">
         <v>84</v>
@@ -19134,7 +19134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -19229,10 +19229,10 @@
         <v>84</v>
       </c>
       <c r="AF75" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG75" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH75" s="15" t="s">
         <v>84</v>
